--- a/ds/seduc/1des/frequencia.xlsx
+++ b/ds/seduc/1des/frequencia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESENVOLVIMENTO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prof. Luis\Documents\GitHub\senai2026\ds\seduc\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955BA3F2-1943-470B-A014-40521341697B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CEAA5D-8009-4198-A327-632512D04AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
@@ -30,15 +30,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -47,6 +44,111 @@
   </si>
   <si>
     <t>RM</t>
+  </si>
+  <si>
+    <t>Bruna Layane Santos Marques</t>
+  </si>
+  <si>
+    <t>Juliana Sayuri Chiarelli Imagiire</t>
+  </si>
+  <si>
+    <t>Lucas da Silva Hidalgo</t>
+  </si>
+  <si>
+    <t>Mayara Lopes Oliveira</t>
+  </si>
+  <si>
+    <t>Thamyris Lopes Gomes</t>
+  </si>
+  <si>
+    <t>Arthur Alves do Amaral Pereira</t>
+  </si>
+  <si>
+    <t>Maria Paula Oliveira dos Santos</t>
+  </si>
+  <si>
+    <t>Rafaela Felles Dias</t>
+  </si>
+  <si>
+    <t>Pedro Henrique Turolla Grimaldi</t>
+  </si>
+  <si>
+    <t>Raissa Helena Clementino</t>
+  </si>
+  <si>
+    <t>Artur Henrique da Silva Oliveira</t>
+  </si>
+  <si>
+    <t>Bianka Vieira Ventura dos Santos</t>
+  </si>
+  <si>
+    <t>Camila Garcia Patrussi</t>
+  </si>
+  <si>
+    <t>Emanuelly Faria de Oliveira</t>
+  </si>
+  <si>
+    <t>Lucas Rafael Andrade de Moura</t>
+  </si>
+  <si>
+    <t>Nicolas Conçalves Feitosa de Jesus</t>
+  </si>
+  <si>
+    <t>Thais Barbosa Alves Pinto</t>
+  </si>
+  <si>
+    <t>Ademario Canaverde de Oliveira Neto</t>
+  </si>
+  <si>
+    <t>Yago Gregio de Olveira</t>
+  </si>
+  <si>
+    <t>Pedro Takeo Marcelino Oka</t>
+  </si>
+  <si>
+    <t>João Pedro Pereira Chinaglia</t>
+  </si>
+  <si>
+    <t>Caua Aparecido Domingos</t>
+  </si>
+  <si>
+    <t>Joardson Vitorio Fernandes Diniz</t>
+  </si>
+  <si>
+    <t>Samuel Henrique dos Santos</t>
+  </si>
+  <si>
+    <t>Luiz Matheus Vellozo de Andrade</t>
+  </si>
+  <si>
+    <t>Vivian Ferreira da Silva</t>
+  </si>
+  <si>
+    <t>Eyck Jardel dos Santos Sousa</t>
+  </si>
+  <si>
+    <t>Enzo Gabriel dos Santos Oliveira</t>
+  </si>
+  <si>
+    <t>Keilon de Moura Frazão Botelho</t>
+  </si>
+  <si>
+    <t>Pedro Thiago Nunes da Silva Costa</t>
+  </si>
+  <si>
+    <t>Thalyson Stenio Camara Viana</t>
+  </si>
+  <si>
+    <t>Julio Gabriel</t>
+  </si>
+  <si>
+    <t>Ramon</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -109,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -118,6 +220,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,41 +528,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DS34"/>
+  <dimension ref="A1:DS35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="50" width="7.7109375" customWidth="1"/>
-    <col min="51" max="51" width="7.7109375" style="5" customWidth="1"/>
-    <col min="52" max="106" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="18" width="7.7265625" style="9" customWidth="1"/>
+    <col min="19" max="50" width="7.7265625" customWidth="1"/>
+    <col min="51" max="51" width="7.7265625" style="5" customWidth="1"/>
+    <col min="52" max="106" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:123" x14ac:dyDescent="0.25">
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
+    <row r="1" spans="1:123" x14ac:dyDescent="0.35">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -529,7 +638,7 @@
       <c r="CL1" s="4"/>
       <c r="CM1" s="4"/>
     </row>
-    <row r="2" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -538,6 +647,12 @@
       </c>
       <c r="C2" t="s">
         <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>46056</v>
+      </c>
+      <c r="E2" s="8">
+        <v>46057</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
@@ -583,17 +698,19 @@
       <c r="CL2" s="5"/>
       <c r="CM2" s="5"/>
     </row>
-    <row r="3" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>alunos!A2</f>
         <v>0</v>
       </c>
-      <c r="B3">
-        <f>alunos!B2</f>
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
@@ -671,17 +788,19 @@
       <c r="DR3" s="5"/>
       <c r="DS3" s="5"/>
     </row>
-    <row r="4" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>alunos!A3</f>
         <v>0</v>
       </c>
-      <c r="B4">
-        <f>alunos!B3</f>
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
       <c r="C4">
         <v>2</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
@@ -759,17 +878,19 @@
       <c r="DR4" s="5"/>
       <c r="DS4" s="5"/>
     </row>
-    <row r="5" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>alunos!A4</f>
         <v>0</v>
       </c>
-      <c r="B5">
-        <f>alunos!B4</f>
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
       <c r="C5">
         <v>3</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
@@ -847,17 +968,19 @@
       <c r="DR5" s="5"/>
       <c r="DS5" s="5"/>
     </row>
-    <row r="6" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>alunos!A5</f>
         <v>0</v>
       </c>
-      <c r="B6">
-        <f>alunos!B5</f>
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
       <c r="C6">
         <v>4</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
@@ -935,17 +1058,19 @@
       <c r="DR6" s="5"/>
       <c r="DS6" s="5"/>
     </row>
-    <row r="7" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>alunos!A6</f>
         <v>0</v>
       </c>
-      <c r="B7">
-        <f>alunos!B6</f>
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
       <c r="C7">
         <v>5</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
@@ -1023,17 +1148,19 @@
       <c r="DR7" s="5"/>
       <c r="DS7" s="5"/>
     </row>
-    <row r="8" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>alunos!A7</f>
         <v>0</v>
       </c>
-      <c r="B8">
-        <f>alunos!B7</f>
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
       <c r="C8">
         <v>6</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
@@ -1111,17 +1238,19 @@
       <c r="DR8" s="5"/>
       <c r="DS8" s="5"/>
     </row>
-    <row r="9" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A9">
         <f>alunos!A8</f>
         <v>0</v>
       </c>
-      <c r="B9">
-        <f>alunos!B8</f>
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>9</v>
       </c>
       <c r="C9">
         <v>7</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
@@ -1199,17 +1328,19 @@
       <c r="DR9" s="5"/>
       <c r="DS9" s="5"/>
     </row>
-    <row r="10" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A10">
         <f>alunos!A9</f>
         <v>0</v>
       </c>
-      <c r="B10">
-        <f>alunos!B9</f>
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
       <c r="C10">
         <v>8</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
@@ -1287,17 +1418,19 @@
       <c r="DR10" s="5"/>
       <c r="DS10" s="5"/>
     </row>
-    <row r="11" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>alunos!A10</f>
         <v>0</v>
       </c>
-      <c r="B11">
-        <f>alunos!B10</f>
-        <v>0</v>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
       <c r="C11">
         <v>9</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
@@ -1375,17 +1508,19 @@
       <c r="DR11" s="5"/>
       <c r="DS11" s="5"/>
     </row>
-    <row r="12" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A12">
         <f>alunos!A11</f>
         <v>0</v>
       </c>
-      <c r="B12">
-        <f>alunos!B11</f>
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>12</v>
       </c>
       <c r="C12">
         <v>10</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
@@ -1463,17 +1598,19 @@
       <c r="DR12" s="5"/>
       <c r="DS12" s="5"/>
     </row>
-    <row r="13" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <f>alunos!A12</f>
         <v>0</v>
       </c>
-      <c r="B13">
-        <f>alunos!B12</f>
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>13</v>
       </c>
       <c r="C13">
         <v>11</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
@@ -1551,17 +1688,19 @@
       <c r="DR13" s="5"/>
       <c r="DS13" s="5"/>
     </row>
-    <row r="14" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A14">
         <f>alunos!A13</f>
         <v>0</v>
       </c>
-      <c r="B14">
-        <f>alunos!B13</f>
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>14</v>
       </c>
       <c r="C14">
         <v>12</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
@@ -1639,17 +1778,19 @@
       <c r="DR14" s="5"/>
       <c r="DS14" s="5"/>
     </row>
-    <row r="15" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A15">
         <f>alunos!A14</f>
         <v>0</v>
       </c>
-      <c r="B15">
-        <f>alunos!B14</f>
-        <v>0</v>
+      <c r="B15" t="s">
+        <v>15</v>
       </c>
       <c r="C15">
         <v>13</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
@@ -1727,17 +1868,19 @@
       <c r="DR15" s="5"/>
       <c r="DS15" s="5"/>
     </row>
-    <row r="16" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A16">
         <f>alunos!A15</f>
         <v>0</v>
       </c>
-      <c r="B16">
-        <f>alunos!B15</f>
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>16</v>
       </c>
       <c r="C16">
         <v>14</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
@@ -1815,17 +1958,19 @@
       <c r="DR16" s="5"/>
       <c r="DS16" s="5"/>
     </row>
-    <row r="17" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A17">
         <f>alunos!A16</f>
         <v>0</v>
       </c>
-      <c r="B17">
-        <f>alunos!B16</f>
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>17</v>
       </c>
       <c r="C17">
         <v>15</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
@@ -1903,17 +2048,19 @@
       <c r="DR17" s="5"/>
       <c r="DS17" s="5"/>
     </row>
-    <row r="18" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A18">
         <f>alunos!A17</f>
         <v>0</v>
       </c>
-      <c r="B18">
-        <f>alunos!B17</f>
-        <v>0</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
       <c r="C18">
         <v>16</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
@@ -1991,17 +2138,19 @@
       <c r="DR18" s="5"/>
       <c r="DS18" s="5"/>
     </row>
-    <row r="19" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A19">
         <f>alunos!A18</f>
         <v>0</v>
       </c>
-      <c r="B19">
-        <f>alunos!B18</f>
-        <v>0</v>
+      <c r="B19" t="s">
+        <v>19</v>
       </c>
       <c r="C19">
         <v>17</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
@@ -2079,17 +2228,19 @@
       <c r="DR19" s="5"/>
       <c r="DS19" s="5"/>
     </row>
-    <row r="20" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A20">
         <f>alunos!A19</f>
         <v>0</v>
       </c>
-      <c r="B20">
-        <f>alunos!B19</f>
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>20</v>
       </c>
       <c r="C20">
         <v>18</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
@@ -2167,17 +2318,19 @@
       <c r="DR20" s="5"/>
       <c r="DS20" s="5"/>
     </row>
-    <row r="21" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A21">
         <f>alunos!A20</f>
         <v>0</v>
       </c>
-      <c r="B21">
-        <f>alunos!B20</f>
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>21</v>
       </c>
       <c r="C21">
         <v>19</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
@@ -2255,17 +2408,19 @@
       <c r="DR21" s="5"/>
       <c r="DS21" s="5"/>
     </row>
-    <row r="22" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A22">
         <f>alunos!A21</f>
         <v>0</v>
       </c>
-      <c r="B22">
-        <f>alunos!B21</f>
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>22</v>
       </c>
       <c r="C22">
         <v>20</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
@@ -2343,17 +2498,19 @@
       <c r="DR22" s="5"/>
       <c r="DS22" s="5"/>
     </row>
-    <row r="23" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A23">
         <f>alunos!A22</f>
         <v>0</v>
       </c>
-      <c r="B23">
-        <f>alunos!B22</f>
-        <v>0</v>
+      <c r="B23" t="s">
+        <v>23</v>
       </c>
       <c r="C23">
         <v>21</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
@@ -2431,17 +2588,19 @@
       <c r="DR23" s="5"/>
       <c r="DS23" s="5"/>
     </row>
-    <row r="24" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A24">
         <f>alunos!A23</f>
         <v>0</v>
       </c>
-      <c r="B24">
-        <f>alunos!B23</f>
-        <v>0</v>
+      <c r="B24" t="s">
+        <v>24</v>
       </c>
       <c r="C24">
         <v>22</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
@@ -2519,17 +2678,19 @@
       <c r="DR24" s="5"/>
       <c r="DS24" s="5"/>
     </row>
-    <row r="25" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A25">
         <f>alunos!A24</f>
         <v>0</v>
       </c>
-      <c r="B25">
-        <f>alunos!B24</f>
-        <v>0</v>
+      <c r="B25" t="s">
+        <v>25</v>
       </c>
       <c r="C25">
         <v>23</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
@@ -2607,17 +2768,19 @@
       <c r="DR25" s="5"/>
       <c r="DS25" s="5"/>
     </row>
-    <row r="26" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A26">
         <f>alunos!A25</f>
         <v>0</v>
       </c>
-      <c r="B26">
-        <f>alunos!B25</f>
-        <v>0</v>
+      <c r="B26" t="s">
+        <v>26</v>
       </c>
       <c r="C26">
         <v>24</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
@@ -2695,17 +2858,19 @@
       <c r="DR26" s="5"/>
       <c r="DS26" s="5"/>
     </row>
-    <row r="27" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A27">
         <f>alunos!A26</f>
         <v>0</v>
       </c>
-      <c r="B27">
-        <f>alunos!B26</f>
-        <v>0</v>
+      <c r="B27" t="s">
+        <v>27</v>
       </c>
       <c r="C27">
         <v>25</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
@@ -2783,17 +2948,19 @@
       <c r="DR27" s="5"/>
       <c r="DS27" s="5"/>
     </row>
-    <row r="28" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A28">
         <f>alunos!A27</f>
         <v>0</v>
       </c>
-      <c r="B28">
-        <f>alunos!B27</f>
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>28</v>
       </c>
       <c r="C28">
         <v>26</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
@@ -2871,17 +3038,19 @@
       <c r="DR28" s="5"/>
       <c r="DS28" s="5"/>
     </row>
-    <row r="29" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A29">
         <f>alunos!A28</f>
         <v>0</v>
       </c>
-      <c r="B29">
-        <f>alunos!B28</f>
-        <v>0</v>
+      <c r="B29" t="s">
+        <v>29</v>
       </c>
       <c r="C29">
         <v>27</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
@@ -2959,17 +3128,19 @@
       <c r="DR29" s="5"/>
       <c r="DS29" s="5"/>
     </row>
-    <row r="30" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A30">
         <f>alunos!A29</f>
         <v>0</v>
       </c>
-      <c r="B30">
-        <f>alunos!B29</f>
-        <v>0</v>
+      <c r="B30" t="s">
+        <v>30</v>
       </c>
       <c r="C30">
         <v>28</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
@@ -3047,17 +3218,19 @@
       <c r="DR30" s="5"/>
       <c r="DS30" s="5"/>
     </row>
-    <row r="31" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A31">
         <f>alunos!A30</f>
         <v>0</v>
       </c>
-      <c r="B31">
-        <f>alunos!B30</f>
-        <v>0</v>
+      <c r="B31" t="s">
+        <v>31</v>
       </c>
       <c r="C31">
         <v>29</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
@@ -3135,17 +3308,19 @@
       <c r="DR31" s="5"/>
       <c r="DS31" s="5"/>
     </row>
-    <row r="32" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A32">
         <f>alunos!A31</f>
         <v>0</v>
       </c>
-      <c r="B32">
-        <f>alunos!B31</f>
-        <v>0</v>
+      <c r="B32" t="s">
+        <v>32</v>
       </c>
       <c r="C32">
         <v>30</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU32" s="2"/>
       <c r="AV32" s="2"/>
@@ -3223,17 +3398,19 @@
       <c r="DR32" s="5"/>
       <c r="DS32" s="5"/>
     </row>
-    <row r="33" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A33">
         <f>alunos!A32</f>
         <v>0</v>
       </c>
-      <c r="B33">
-        <f>alunos!B32</f>
-        <v>0</v>
+      <c r="B33" t="s">
+        <v>33</v>
       </c>
       <c r="C33">
         <v>31</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="AU33" s="2"/>
       <c r="AV33" s="2"/>
@@ -3311,17 +3488,19 @@
       <c r="DR33" s="5"/>
       <c r="DS33" s="5"/>
     </row>
-    <row r="34" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A34">
         <f>alunos!A33</f>
         <v>0</v>
       </c>
-      <c r="B34">
-        <f>alunos!B33</f>
-        <v>0</v>
+      <c r="B34" t="s">
+        <v>34</v>
       </c>
       <c r="C34">
         <v>32</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AZ34" s="5"/>
       <c r="BA34" s="5"/>
@@ -3396,6 +3575,20 @@
       <c r="DR34" s="5"/>
       <c r="DS34" s="5"/>
     </row>
+    <row r="35" spans="1:123" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B33">
     <sortCondition ref="B3:B33"/>
@@ -3406,7 +3599,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE3:DG3 D3:AZ10 BB3:BB22 BE4:BJ10 D11:BA22 BC11:BJ22 D23:BJ33 BK4:DG33">
+  <conditionalFormatting sqref="BE3:DG3 D3:AZ3 BB3:BB22 BE4:BJ10 BK4:DG33 E11:BA22 BC11:BJ22 E23:BJ33 E4:AZ10 D4:D35">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -3421,18 +3614,18 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B32"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>

--- a/ds/seduc/1des/frequencia.xlsx
+++ b/ds/seduc/1des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prof. Luis\Documents\GitHub\senai2026\ds\seduc\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CEAA5D-8009-4198-A327-632512D04AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBC8418-72DF-4512-86C8-B0BA36E6C8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -531,10 +531,10 @@
   <dimension ref="A1:DS35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1972,6 +1972,9 @@
       <c r="D17" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="E17" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -2062,6 +2065,9 @@
       <c r="D18" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="E18" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -2152,6 +2158,9 @@
       <c r="D19" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="E19" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -2242,6 +2251,9 @@
       <c r="D20" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="E20" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
@@ -2332,6 +2344,9 @@
       <c r="D21" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="E21" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
@@ -2422,6 +2437,9 @@
       <c r="D22" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="E22" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
@@ -2512,6 +2530,9 @@
       <c r="D23" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="E23" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
@@ -2602,6 +2623,9 @@
       <c r="D24" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="E24" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
@@ -2692,6 +2716,9 @@
       <c r="D25" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="E25" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
@@ -2782,6 +2809,9 @@
       <c r="D26" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="E26" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
@@ -2872,6 +2902,9 @@
       <c r="D27" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="E27" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
@@ -2962,6 +2995,9 @@
       <c r="D28" s="9" t="s">
         <v>37</v>
       </c>
+      <c r="E28" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
@@ -3052,6 +3088,9 @@
       <c r="D29" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="E29" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
@@ -3142,6 +3181,9 @@
       <c r="D30" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="E30" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
@@ -3232,6 +3274,9 @@
       <c r="D31" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="E31" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
@@ -3322,6 +3367,9 @@
       <c r="D32" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="E32" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="AU32" s="2"/>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2"/>
@@ -3412,6 +3460,9 @@
       <c r="D33" s="9" t="s">
         <v>37</v>
       </c>
+      <c r="E33" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="AU33" s="2"/>
       <c r="AV33" s="2"/>
       <c r="AW33" s="2"/>
@@ -3502,6 +3553,9 @@
       <c r="D34" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="E34" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="AZ34" s="5"/>
       <c r="BA34" s="5"/>
       <c r="BB34" s="5"/>
@@ -3588,19 +3642,22 @@
       <c r="D35" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="E35" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B33">
     <sortCondition ref="B3:B33"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="AH34">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="D3:AZ3 BE3:DG3 BB3:BB22 E4:AZ10 BE4:BJ10 BK4:DG33 D4:D35 E11:BA17 BC11:BJ22 F23:BJ33 F18:BA22 E18:E35">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE3:DG3 D3:AZ3 BB3:BB22 BE4:BJ10 BK4:DG33 E11:BA22 BC11:BJ22 E23:BJ33 E4:AZ10 D4:D35">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="AH34">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ds/seduc/1des/frequencia.xlsx
+++ b/ds/seduc/1des/frequencia.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prof. Luis\Documents\GitHub\senai2026\ds\seduc\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBC8418-72DF-4512-86C8-B0BA36E6C8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B863922-0D88-45BA-9DBC-4534231A2F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
-    <sheet name="alunos" sheetId="2" r:id="rId2"/>
+    <sheet name="Atividades" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Atividades!$A$1:$C$34</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="41">
   <si>
     <t>Aluno</t>
   </si>
@@ -150,6 +153,15 @@
   <si>
     <t>F</t>
   </si>
+  <si>
+    <t>Ordem</t>
+  </si>
+  <si>
+    <t>Aula1 - Lopal</t>
+  </si>
+  <si>
+    <t>Entregue</t>
+  </si>
 </sst>
 </file>
 
@@ -190,15 +202,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -206,12 +224,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -226,12 +259,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -530,11 +575,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DS35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -700,8 +745,8 @@
     </row>
     <row r="3" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A3">
-        <f>alunos!A2</f>
-        <v>0</v>
+        <f>Atividades!A2</f>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -790,8 +835,8 @@
     </row>
     <row r="4" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f>alunos!A3</f>
-        <v>0</v>
+        <f>Atividades!A3</f>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -880,8 +925,8 @@
     </row>
     <row r="5" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A5">
-        <f>alunos!A4</f>
-        <v>0</v>
+        <f>Atividades!A4</f>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -890,6 +935,9 @@
         <v>3</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU5" s="2"/>
@@ -970,8 +1018,8 @@
     </row>
     <row r="6" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f>alunos!A5</f>
-        <v>0</v>
+        <f>Atividades!A5</f>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -980,6 +1028,9 @@
         <v>4</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU6" s="2"/>
@@ -1060,8 +1111,8 @@
     </row>
     <row r="7" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A7">
-        <f>alunos!A6</f>
-        <v>0</v>
+        <f>Atividades!A6</f>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1070,6 +1121,9 @@
         <v>5</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU7" s="2"/>
@@ -1150,8 +1204,8 @@
     </row>
     <row r="8" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A8">
-        <f>alunos!A7</f>
-        <v>0</v>
+        <f>Atividades!A7</f>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1160,6 +1214,9 @@
         <v>6</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU8" s="2"/>
@@ -1240,8 +1297,8 @@
     </row>
     <row r="9" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f>alunos!A8</f>
-        <v>0</v>
+        <f>Atividades!A8</f>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1250,6 +1307,9 @@
         <v>7</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU9" s="2"/>
@@ -1330,8 +1390,8 @@
     </row>
     <row r="10" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f>alunos!A9</f>
-        <v>0</v>
+        <f>Atividades!A9</f>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -1340,6 +1400,9 @@
         <v>8</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU10" s="2"/>
@@ -1420,8 +1483,8 @@
     </row>
     <row r="11" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f>alunos!A10</f>
-        <v>0</v>
+        <f>Atividades!A10</f>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1430,6 +1493,9 @@
         <v>9</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU11" s="2"/>
@@ -1510,8 +1576,8 @@
     </row>
     <row r="12" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A12">
-        <f>alunos!A11</f>
-        <v>0</v>
+        <f>Atividades!A11</f>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1520,6 +1586,9 @@
         <v>10</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU12" s="2"/>
@@ -1600,8 +1669,8 @@
     </row>
     <row r="13" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
-        <f>alunos!A12</f>
-        <v>0</v>
+        <f>Atividades!A12</f>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1610,6 +1679,9 @@
         <v>11</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU13" s="2"/>
@@ -1690,8 +1762,8 @@
     </row>
     <row r="14" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A14">
-        <f>alunos!A13</f>
-        <v>0</v>
+        <f>Atividades!A13</f>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1700,6 +1772,9 @@
         <v>12</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU14" s="2"/>
@@ -1780,8 +1855,8 @@
     </row>
     <row r="15" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A15">
-        <f>alunos!A14</f>
-        <v>0</v>
+        <f>Atividades!A14</f>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1790,6 +1865,9 @@
         <v>13</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU15" s="2"/>
@@ -1870,8 +1948,8 @@
     </row>
     <row r="16" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A16">
-        <f>alunos!A15</f>
-        <v>0</v>
+        <f>Atividades!A15</f>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1880,6 +1958,9 @@
         <v>14</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU16" s="2"/>
@@ -1960,8 +2041,8 @@
     </row>
     <row r="17" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A17">
-        <f>alunos!A16</f>
-        <v>0</v>
+        <f>Atividades!A16</f>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -2053,8 +2134,8 @@
     </row>
     <row r="18" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A18">
-        <f>alunos!A17</f>
-        <v>0</v>
+        <f>Atividades!A17</f>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -2146,8 +2227,8 @@
     </row>
     <row r="19" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A19">
-        <f>alunos!A18</f>
-        <v>0</v>
+        <f>Atividades!A18</f>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -2239,8 +2320,8 @@
     </row>
     <row r="20" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A20">
-        <f>alunos!A19</f>
-        <v>0</v>
+        <f>Atividades!A19</f>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -2332,8 +2413,8 @@
     </row>
     <row r="21" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A21">
-        <f>alunos!A20</f>
-        <v>0</v>
+        <f>Atividades!A20</f>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -2425,8 +2506,8 @@
     </row>
     <row r="22" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A22">
-        <f>alunos!A21</f>
-        <v>0</v>
+        <f>Atividades!A21</f>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -2518,8 +2599,8 @@
     </row>
     <row r="23" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A23">
-        <f>alunos!A22</f>
-        <v>0</v>
+        <f>Atividades!A22</f>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -2611,8 +2692,8 @@
     </row>
     <row r="24" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A24">
-        <f>alunos!A23</f>
-        <v>0</v>
+        <f>Atividades!A23</f>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -2704,8 +2785,8 @@
     </row>
     <row r="25" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A25">
-        <f>alunos!A24</f>
-        <v>0</v>
+        <f>Atividades!A24</f>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -2797,8 +2878,8 @@
     </row>
     <row r="26" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A26">
-        <f>alunos!A25</f>
-        <v>0</v>
+        <f>Atividades!A25</f>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -2890,8 +2971,8 @@
     </row>
     <row r="27" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A27">
-        <f>alunos!A26</f>
-        <v>0</v>
+        <f>Atividades!A26</f>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -2983,8 +3064,8 @@
     </row>
     <row r="28" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A28">
-        <f>alunos!A27</f>
-        <v>0</v>
+        <f>Atividades!A27</f>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -3076,8 +3157,8 @@
     </row>
     <row r="29" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A29">
-        <f>alunos!A28</f>
-        <v>0</v>
+        <f>Atividades!A28</f>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -3169,8 +3250,8 @@
     </row>
     <row r="30" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A30">
-        <f>alunos!A29</f>
-        <v>0</v>
+        <f>Atividades!A29</f>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -3262,8 +3343,8 @@
     </row>
     <row r="31" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A31">
-        <f>alunos!A30</f>
-        <v>0</v>
+        <f>Atividades!A30</f>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -3355,8 +3436,8 @@
     </row>
     <row r="32" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A32">
-        <f>alunos!A31</f>
-        <v>0</v>
+        <f>Atividades!A31</f>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -3448,8 +3529,8 @@
     </row>
     <row r="33" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A33">
-        <f>alunos!A32</f>
-        <v>0</v>
+        <f>Atividades!A32</f>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -3541,8 +3622,8 @@
     </row>
     <row r="34" spans="1:123" x14ac:dyDescent="0.35">
       <c r="A34">
-        <f>alunos!A33</f>
-        <v>0</v>
+        <f>Atividades!A33</f>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -3651,13 +3732,13 @@
     <sortCondition ref="B3:B33"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D3:AZ3 BE3:DG3 BB3:BB22 E4:AZ10 BE4:BJ10 BK4:DG33 D4:D35 E11:BA17 BC11:BJ22 F23:BJ33 F18:BA22 E18:E35">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="D3:AZ3 BE3:DG3 BB3:BB22 E4:AZ4 BE4:BJ10 BK4:DG33 D4:D35 E17:BA17 BC11:BJ22 F18:BA22 E18:E35 F23:BJ33 F11:BA16 F5:AZ10 E5:E16">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH34">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3668,29 +3749,1293 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA43B27-548D-428E-B1BF-5E790279A96A}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="4" max="4" width="8.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
+        <v>18</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>12</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>22</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>14</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>28</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>27</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>21</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>23</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>2</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>31</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>29</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>3</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>15</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>25</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>7</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>4</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>16</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>9</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>20</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>30</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>8</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
+        <v>10</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
+        <v>31</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
+        <v>24</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A30" s="10">
+        <v>17</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A31" s="10">
+        <v>31</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A32" s="10">
+        <v>5</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A33" s="10">
+        <v>26</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A34" s="10">
+        <v>19</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C34" xr:uid="{EAA43B27-548D-428E-B1BF-5E790279A96A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C34">
+      <sortCondition ref="B1:B34"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="C2:AD34">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Entregue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AD34" xr:uid="{3A689E92-96CC-4D2B-A99E-76160747A72F}">
+      <formula1>"Não Entregue,Entregue"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ds/seduc/1des/frequencia.xlsx
+++ b/ds/seduc/1des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prof. Luis\Documents\GitHub\senai2026\ds\seduc\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B863922-0D88-45BA-9DBC-4534231A2F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F5A91C-D7B3-40AB-B906-DE2858A56F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="44">
   <si>
     <t>Aluno</t>
   </si>
@@ -162,6 +162,15 @@
   <si>
     <t>Entregue</t>
   </si>
+  <si>
+    <t>Ter</t>
+  </si>
+  <si>
+    <t>Quar</t>
+  </si>
+  <si>
+    <t>Aula1 - LER</t>
+  </si>
 </sst>
 </file>
 
@@ -244,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -261,6 +270,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,11 +587,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DS35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B35"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -594,10 +606,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="D1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -699,6 +719,12 @@
       <c r="E2" s="8">
         <v>46057</v>
       </c>
+      <c r="F2" s="8">
+        <v>46063</v>
+      </c>
+      <c r="G2" s="8">
+        <v>46064</v>
+      </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
@@ -744,9 +770,8 @@
       <c r="CM2" s="5"/>
     </row>
     <row r="3" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <f>Atividades!A2</f>
-        <v>18</v>
+      <c r="A3" s="12">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -755,6 +780,15 @@
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU3" s="2"/>
@@ -834,9 +868,8 @@
       <c r="DS3" s="5"/>
     </row>
     <row r="4" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <f>Atividades!A3</f>
-        <v>6</v>
+      <c r="A4" s="12">
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -845,6 +878,15 @@
         <v>2</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU4" s="2"/>
@@ -924,9 +966,8 @@
       <c r="DS4" s="5"/>
     </row>
     <row r="5" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <f>Atividades!A4</f>
-        <v>11</v>
+      <c r="A5" s="12">
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -938,6 +979,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU5" s="2"/>
@@ -1017,9 +1064,8 @@
       <c r="DS5" s="5"/>
     </row>
     <row r="6" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <f>Atividades!A5</f>
-        <v>12</v>
+      <c r="A6" s="12">
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1031,6 +1077,12 @@
         <v>36</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU6" s="2"/>
@@ -1110,9 +1162,8 @@
       <c r="DS6" s="5"/>
     </row>
     <row r="7" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <f>Atividades!A6</f>
-        <v>1</v>
+      <c r="A7" s="12">
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1124,6 +1175,12 @@
         <v>36</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU7" s="2"/>
@@ -1203,9 +1260,8 @@
       <c r="DS7" s="5"/>
     </row>
     <row r="8" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <f>Atividades!A7</f>
-        <v>13</v>
+      <c r="A8" s="12">
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1217,6 +1273,12 @@
         <v>36</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU8" s="2"/>
@@ -1296,9 +1358,8 @@
       <c r="DS8" s="5"/>
     </row>
     <row r="9" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <f>Atividades!A8</f>
-        <v>22</v>
+      <c r="A9" s="12">
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1310,6 +1371,12 @@
         <v>36</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU9" s="2"/>
@@ -1389,9 +1456,8 @@
       <c r="DS9" s="5"/>
     </row>
     <row r="10" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <f>Atividades!A9</f>
-        <v>14</v>
+      <c r="A10" s="12">
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -1404,6 +1470,12 @@
       </c>
       <c r="E10" s="9" t="s">
         <v>36</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
@@ -1482,9 +1554,8 @@
       <c r="DS10" s="5"/>
     </row>
     <row r="11" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <f>Atividades!A10</f>
-        <v>28</v>
+      <c r="A11" s="12">
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1496,6 +1567,12 @@
         <v>36</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU11" s="2"/>
@@ -1575,9 +1652,8 @@
       <c r="DS11" s="5"/>
     </row>
     <row r="12" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <f>Atividades!A11</f>
-        <v>27</v>
+      <c r="A12" s="12">
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1589,6 +1665,12 @@
         <v>36</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU12" s="2"/>
@@ -1668,9 +1750,8 @@
       <c r="DS12" s="5"/>
     </row>
     <row r="13" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <f>Atividades!A12</f>
-        <v>21</v>
+      <c r="A13" s="12">
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1679,9 +1760,15 @@
         <v>11</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU13" s="2"/>
@@ -1761,9 +1848,8 @@
       <c r="DS13" s="5"/>
     </row>
     <row r="14" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <f>Atividades!A13</f>
-        <v>23</v>
+      <c r="A14" s="12">
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1775,6 +1861,12 @@
         <v>36</v>
       </c>
       <c r="E14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU14" s="2"/>
@@ -1854,9 +1946,8 @@
       <c r="DS14" s="5"/>
     </row>
     <row r="15" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <f>Atividades!A14</f>
-        <v>2</v>
+      <c r="A15" s="12">
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1868,6 +1959,12 @@
         <v>36</v>
       </c>
       <c r="E15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU15" s="2"/>
@@ -1947,9 +2044,8 @@
       <c r="DS15" s="5"/>
     </row>
     <row r="16" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <f>Atividades!A15</f>
-        <v>31</v>
+      <c r="A16" s="12">
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1961,6 +2057,12 @@
         <v>36</v>
       </c>
       <c r="E16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU16" s="2"/>
@@ -2040,9 +2142,8 @@
       <c r="DS16" s="5"/>
     </row>
     <row r="17" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <f>Atividades!A16</f>
-        <v>29</v>
+      <c r="A17" s="12">
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -2054,6 +2155,12 @@
         <v>36</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU17" s="2"/>
@@ -2133,9 +2240,8 @@
       <c r="DS17" s="5"/>
     </row>
     <row r="18" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <f>Atividades!A17</f>
-        <v>3</v>
+      <c r="A18" s="12">
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -2147,6 +2253,12 @@
         <v>36</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU18" s="2"/>
@@ -2226,9 +2338,8 @@
       <c r="DS18" s="5"/>
     </row>
     <row r="19" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <f>Atividades!A18</f>
-        <v>15</v>
+      <c r="A19" s="12">
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -2240,6 +2351,12 @@
         <v>36</v>
       </c>
       <c r="E19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU19" s="2"/>
@@ -2319,9 +2436,8 @@
       <c r="DS19" s="5"/>
     </row>
     <row r="20" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <f>Atividades!A19</f>
-        <v>25</v>
+      <c r="A20" s="12">
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -2333,6 +2449,12 @@
         <v>36</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU20" s="2"/>
@@ -2412,9 +2534,8 @@
       <c r="DS20" s="5"/>
     </row>
     <row r="21" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <f>Atividades!A20</f>
-        <v>7</v>
+      <c r="A21" s="12">
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -2426,6 +2547,12 @@
         <v>36</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU21" s="2"/>
@@ -2505,9 +2632,8 @@
       <c r="DS21" s="5"/>
     </row>
     <row r="22" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <f>Atividades!A21</f>
-        <v>4</v>
+      <c r="A22" s="12">
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -2520,6 +2646,12 @@
       </c>
       <c r="E22" s="9" t="s">
         <v>36</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
@@ -2598,9 +2730,8 @@
       <c r="DS22" s="5"/>
     </row>
     <row r="23" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <f>Atividades!A22</f>
-        <v>16</v>
+      <c r="A23" s="12">
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -2612,6 +2743,12 @@
         <v>36</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU23" s="2"/>
@@ -2691,9 +2828,8 @@
       <c r="DS23" s="5"/>
     </row>
     <row r="24" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <f>Atividades!A23</f>
-        <v>9</v>
+      <c r="A24" s="12">
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -2705,6 +2841,12 @@
         <v>36</v>
       </c>
       <c r="E24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU24" s="2"/>
@@ -2784,9 +2926,8 @@
       <c r="DS24" s="5"/>
     </row>
     <row r="25" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <f>Atividades!A24</f>
-        <v>20</v>
+      <c r="A25" s="12">
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -2798,6 +2939,12 @@
         <v>36</v>
       </c>
       <c r="E25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU25" s="2"/>
@@ -2877,9 +3024,8 @@
       <c r="DS25" s="5"/>
     </row>
     <row r="26" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <f>Atividades!A25</f>
-        <v>30</v>
+      <c r="A26" s="12">
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -2891,6 +3037,12 @@
         <v>36</v>
       </c>
       <c r="E26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU26" s="2"/>
@@ -2970,9 +3122,8 @@
       <c r="DS26" s="5"/>
     </row>
     <row r="27" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <f>Atividades!A26</f>
-        <v>8</v>
+      <c r="A27" s="12">
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -2984,6 +3135,12 @@
         <v>36</v>
       </c>
       <c r="E27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU27" s="2"/>
@@ -3063,9 +3220,8 @@
       <c r="DS27" s="5"/>
     </row>
     <row r="28" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <f>Atividades!A27</f>
-        <v>10</v>
+      <c r="A28" s="12">
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -3078,6 +3234,12 @@
       </c>
       <c r="E28" s="9" t="s">
         <v>37</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
@@ -3156,9 +3318,8 @@
       <c r="DS28" s="5"/>
     </row>
     <row r="29" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <f>Atividades!A28</f>
-        <v>31</v>
+      <c r="A29" s="12">
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -3170,6 +3331,12 @@
         <v>36</v>
       </c>
       <c r="E29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU29" s="2"/>
@@ -3249,9 +3416,8 @@
       <c r="DS29" s="5"/>
     </row>
     <row r="30" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <f>Atividades!A29</f>
-        <v>24</v>
+      <c r="A30" s="12">
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -3263,6 +3429,12 @@
         <v>36</v>
       </c>
       <c r="E30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU30" s="2"/>
@@ -3342,9 +3514,8 @@
       <c r="DS30" s="5"/>
     </row>
     <row r="31" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <f>Atividades!A30</f>
-        <v>17</v>
+      <c r="A31" s="12">
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -3356,6 +3527,12 @@
         <v>36</v>
       </c>
       <c r="E31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU31" s="2"/>
@@ -3435,9 +3612,8 @@
       <c r="DS31" s="5"/>
     </row>
     <row r="32" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <f>Atividades!A31</f>
-        <v>31</v>
+      <c r="A32" s="12">
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -3449,6 +3625,12 @@
         <v>36</v>
       </c>
       <c r="E32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AU32" s="2"/>
@@ -3528,9 +3710,8 @@
       <c r="DS32" s="5"/>
     </row>
     <row r="33" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <f>Atividades!A32</f>
-        <v>5</v>
+      <c r="A33" s="12">
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -3543,6 +3724,12 @@
       </c>
       <c r="E33" s="9" t="s">
         <v>37</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AU33" s="2"/>
       <c r="AV33" s="2"/>
@@ -3621,9 +3808,8 @@
       <c r="DS33" s="5"/>
     </row>
     <row r="34" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <f>Atividades!A33</f>
-        <v>26</v>
+      <c r="A34" s="12">
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -3635,6 +3821,12 @@
         <v>36</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AZ34" s="5"/>
@@ -3711,8 +3903,8 @@
       <c r="DS34" s="5"/>
     </row>
     <row r="35" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>0</v>
+      <c r="A35" s="12">
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -3724,6 +3916,12 @@
         <v>36</v>
       </c>
       <c r="E35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3732,7 +3930,7 @@
     <sortCondition ref="B3:B33"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D3:AZ3 BE3:DG3 BB3:BB22 E4:AZ4 BE4:BJ10 BK4:DG33 D4:D35 E17:BA17 BC11:BJ22 F18:BA22 E18:E35 F23:BJ33 F11:BA16 F5:AZ10 E5:E16">
+  <conditionalFormatting sqref="F3:AZ3 BE3:DG3 BB3:BB22 D3:E35 H4:AZ10 BE4:BJ10 BK4:DG33 F4:F35 G20:BA20 BC11:BJ22 H23:BJ33 H11:BA19 G4:G19 H21:BA22 G21:G35">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -3751,8 +3949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA43B27-548D-428E-B1BF-5E790279A96A}">
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3760,7 +3958,7 @@
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.08984375" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.35">
@@ -3772,6 +3970,9 @@
       </c>
       <c r="C1" t="s">
         <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
@@ -3822,7 +4023,9 @@
       <c r="C3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -3858,7 +4061,9 @@
         <v>13</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -3896,7 +4101,9 @@
       <c r="C5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -3934,7 +4141,9 @@
       <c r="C6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -3972,7 +4181,9 @@
       <c r="C7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -4010,7 +4221,9 @@
       <c r="C8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -4048,7 +4261,9 @@
       <c r="C9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -4086,7 +4301,9 @@
       <c r="C10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -4124,7 +4341,9 @@
       <c r="C11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -4162,7 +4381,9 @@
       <c r="C12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -4200,7 +4421,9 @@
       <c r="C13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -4238,7 +4461,9 @@
       <c r="C14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -4312,7 +4537,9 @@
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -4350,7 +4577,9 @@
       <c r="C17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -4388,7 +4617,9 @@
       <c r="C18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -4426,7 +4657,9 @@
       <c r="C19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -4464,7 +4697,9 @@
       <c r="C20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -4502,7 +4737,9 @@
       <c r="C21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -4540,7 +4777,9 @@
       <c r="C22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -4578,7 +4817,9 @@
       <c r="C23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -4616,7 +4857,9 @@
       <c r="C24" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="11"/>
+      <c r="D24" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -4654,7 +4897,9 @@
       <c r="C25" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="11"/>
+      <c r="D25" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -4692,7 +4937,9 @@
       <c r="C26" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="11"/>
+      <c r="D26" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -4730,7 +4977,9 @@
       <c r="C27" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="11"/>
+      <c r="D27" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -4768,7 +5017,9 @@
       <c r="C28" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="11"/>
+      <c r="D28" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -4806,7 +5057,9 @@
       <c r="C29" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -4844,7 +5097,9 @@
       <c r="C30" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="11"/>
+      <c r="D30" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -4880,7 +5135,9 @@
         <v>33</v>
       </c>
       <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="D31" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -4918,7 +5175,9 @@
       <c r="C32" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -4954,7 +5213,9 @@
         <v>28</v>
       </c>
       <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="D33" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -4992,7 +5253,9 @@
       <c r="C34" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="11"/>
+      <c r="D34" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>

--- a/ds/seduc/1des/frequencia.xlsx
+++ b/ds/seduc/1des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prof. Luis\Documents\GitHub\senai2026\ds\seduc\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F5A91C-D7B3-40AB-B906-DE2858A56F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511D146C-6975-4A67-BAE3-55ADB691E59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="45">
   <si>
     <t>Aluno</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Aula1 - LER</t>
+  </si>
+  <si>
+    <t>Nicolas Gonçalves Feitosa de Jesus</t>
   </si>
 </sst>
 </file>
@@ -588,10 +591,10 @@
   <dimension ref="A1:DS35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2244,7 +2247,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -3930,7 +3933,7 @@
     <sortCondition ref="B3:B33"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="F3:AZ3 BE3:DG3 BB3:BB22 D3:E35 H4:AZ10 BE4:BJ10 BK4:DG33 F4:F35 G20:BA20 BC11:BJ22 H23:BJ33 H11:BA19 G4:G19 H21:BA22 G21:G35">
+  <conditionalFormatting sqref="F3:AZ3 BE3:DG3 BB3:BB22 D3:E35 H4:AZ10 BE4:BJ10 G4:G19 BK4:DG33 F4:F35 H11:BA19 BC11:BJ22 G20:BA20 H21:BA22 G21:G35 H23:BJ33">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -3949,8 +3952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA43B27-548D-428E-B1BF-5E790279A96A}">
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3985,7 +3988,9 @@
       <c r="C2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -4501,7 +4506,9 @@
       <c r="C15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>

--- a/ds/seduc/1des/frequencia.xlsx
+++ b/ds/seduc/1des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prof. Luis\Documents\GitHub\senai2026\ds\seduc\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511D146C-6975-4A67-BAE3-55ADB691E59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C61CA0-3DE8-48C0-9D09-2B1AEABB5D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
@@ -590,11 +590,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DS35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3952,7 +3952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA43B27-548D-428E-B1BF-5E790279A96A}">
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3960,7 +3960,7 @@
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
